--- a/1601W-learningLogs/1601W.xlsx
+++ b/1601W-learningLogs/1601W.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943">
   <si>
     <t>姓名</t>
   </si>
@@ -963,6 +963,9 @@
     <t>加深学习nltk</t>
   </si>
   <si>
+    <t>2018.09.07</t>
+  </si>
+  <si>
     <t>1.wikidata数据爬取
 2.TF-IDF，网格搜索和交叉验证等知识点学习</t>
   </si>
@@ -1014,9 +1017,6 @@
     <t>研究模块间的关系</t>
   </si>
   <si>
-    <t>2018.09.07</t>
-  </si>
-  <si>
     <t xml:space="preserve">学习TF-IDF </t>
   </si>
   <si>
@@ -1060,6 +1060,507 @@
   </si>
   <si>
     <t>把爬虫爬明白，尽量全部保存</t>
+  </si>
+  <si>
+    <t xml:space="preserve">爬虫方面练习了一部分，还是又不熟悉的
+东西
+制作了停用词文档，研究了用停用词的方法逆向生成关系  </t>
+  </si>
+  <si>
+    <t>爬虫的时候有报错还是找到了</t>
+  </si>
+  <si>
+    <t>爬虫还不熟练，需要继续加强</t>
+  </si>
+  <si>
+    <t>跟着讲师项目进行，上周没有完成的项目继续跟进</t>
+  </si>
+  <si>
+    <t>2018.9.10</t>
+  </si>
+  <si>
+    <t>练习爬虫方面的内容</t>
+  </si>
+  <si>
+    <t>解决了在爬虫时候报错的部分问题</t>
+  </si>
+  <si>
+    <t>界面的格式还不清楚</t>
+  </si>
+  <si>
+    <t>连接数据库</t>
+  </si>
+  <si>
+    <t>了解nltk处理文本的过程。
+熟悉nltk的各种功能。</t>
+  </si>
+  <si>
+    <t>已经熟练掌握这些功能</t>
+  </si>
+  <si>
+    <t>没有问题</t>
+  </si>
+  <si>
+    <t>了解work2vet</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2018.9.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晚9点01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分</t>
+    </r>
+  </si>
+  <si>
+    <t>1.制作了停用词文档，研究了用停用词的方法逆向生成关系                      2.学习并整理了自然语言处理的知识：NLTK用于英文分词，jieba用于中文分词，文本预处理流水等</t>
+  </si>
+  <si>
+    <t>还未将停用词查找关系的方法通过循环写入项目中</t>
+  </si>
+  <si>
+    <t>研究出项目中类间的关系构建</t>
+  </si>
+  <si>
+    <t>2018.09.10</t>
+  </si>
+  <si>
+    <t>学习nltk</t>
+  </si>
+  <si>
+    <t>对nltk有了新的理解</t>
+  </si>
+  <si>
+    <t>不熟练</t>
+  </si>
+  <si>
+    <t>继续nltk</t>
+  </si>
+  <si>
+    <t>1.NLTK英文分词
+2.聊天机器人基础理论学习</t>
+  </si>
+  <si>
+    <t>掌握了关于自然语言处理的流程，及相关库的知识</t>
+  </si>
+  <si>
+    <t>暂无问题</t>
+  </si>
+  <si>
+    <t>1.聊天机器人项目学习
+2.继续上一周未完成项目django部分</t>
+  </si>
+  <si>
+    <t>整理scrapy数据，了解自然语言处理</t>
+  </si>
+  <si>
+    <t>知识图谱项目有待加强</t>
+  </si>
+  <si>
+    <t>不知道如何建立关系</t>
+  </si>
+  <si>
+    <t>继续知识图谱</t>
+  </si>
+  <si>
+    <t>初步了解自然语言处理</t>
+  </si>
+  <si>
+    <t>自然语言处理</t>
+  </si>
+  <si>
+    <t>理解不深</t>
+  </si>
+  <si>
+    <t>1：熟悉nltk2:启动农业知识图谱项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">启动知识图谱报错。解决办法：降低py2neo版本为3.1 </t>
+  </si>
+  <si>
+    <t>python环境报编码异常</t>
+  </si>
+  <si>
+    <t>继续完成未完成的项目，跟随讲课的步伐。</t>
+  </si>
+  <si>
+    <t>学习RNN，初步学习机器人聊天项目</t>
+  </si>
+  <si>
+    <t>一步一步的学好</t>
+  </si>
+  <si>
+    <t>运行了一下机器学习时间很长</t>
+  </si>
+  <si>
+    <t>练习机器学习，看懂人机对话</t>
+  </si>
+  <si>
+    <t>学习自然语言基础</t>
+  </si>
+  <si>
+    <t>寻寻渐进</t>
+  </si>
+  <si>
+    <t>时间紧，任务重</t>
+  </si>
+  <si>
+    <t>坚定目标</t>
+  </si>
+  <si>
+    <t>2018.9.11</t>
+  </si>
+  <si>
+    <t>练习人机对话里面的内容</t>
+  </si>
+  <si>
+    <t>复习了在机器学习和深度学习方面的内容</t>
+  </si>
+  <si>
+    <t>人机对话的系统和结构还不是很清楚，代码没看明白</t>
+  </si>
+  <si>
+    <t>把爬虫的东西总结一下，然后开展人机对话的内容</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2018.9.11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晚9点22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分</t>
+    </r>
+  </si>
+  <si>
+    <t>1.配合老师完成了自己信息的录入        2.学习了情感机器人的项目，总结了笔记</t>
+  </si>
+  <si>
+    <t>基本框架学习</t>
+  </si>
+  <si>
+    <t>学习仍需要深入</t>
+  </si>
+  <si>
+    <t>继续学习情感机器人项目</t>
+  </si>
+  <si>
+    <t>1：熟悉机器人聊天项目2：rnn</t>
+  </si>
+  <si>
+    <t>开始学习RNN</t>
+  </si>
+  <si>
+    <t>运行聊天机器人花费时间较长，有空继续运行。</t>
+  </si>
+  <si>
+    <t>继续学习RNN。分析聊天机器人项目</t>
+  </si>
+  <si>
+    <t>2018.09.11</t>
+  </si>
+  <si>
+    <t>学习人机对话项目</t>
+  </si>
+  <si>
+    <t>对人机对话有所了解</t>
+  </si>
+  <si>
+    <t>继续理解项目</t>
+  </si>
+  <si>
+    <t>熟悉聊天机器人项目的流程</t>
+  </si>
+  <si>
+    <t>局部熟练的流程
+部分模块不熟悉</t>
+  </si>
+  <si>
+    <t>部分模块不太熟悉</t>
+  </si>
+  <si>
+    <t>继续看一些聊天机器人项目</t>
+  </si>
+  <si>
+    <t>1.聊天机器人项目梳理
+2.运行聊天机器人项目</t>
+  </si>
+  <si>
+    <t>聊天机器人项目运行成功</t>
+  </si>
+  <si>
+    <t>根据项目需求对项目进行修改</t>
+  </si>
+  <si>
+    <t>机器人对话</t>
+  </si>
+  <si>
+    <t>一点也不懂</t>
+  </si>
+  <si>
+    <t>2018.9.12</t>
+  </si>
+  <si>
+    <t>1.讲了关于人机对话的内容，并且项目当中自己添加语料库然后训练模型。2.练习Django的内容，试图联系后台数据库。</t>
+  </si>
+  <si>
+    <t>语料库可以添加，但是训练速度很慢，并且结果很不好，在进行人机对话时，效果不好。不管添加了什么语料，机器人的回答几乎一样。</t>
+  </si>
+  <si>
+    <t>前后台的数据连接还不会</t>
+  </si>
+  <si>
+    <t>完成前后台的数据连接，把后台数据完全表现出来</t>
+  </si>
+  <si>
+    <t>2018.09.12</t>
+  </si>
+  <si>
+    <t>对处理数据理解</t>
+  </si>
+  <si>
+    <t>execute不清楚</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2018.9.12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晚9点15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分</t>
+    </r>
+  </si>
+  <si>
+    <t>1.完成了一部分植物病害和植物关系的构建。                                        2.运行了情感机器人项目，正在进行语料库的优化。</t>
+  </si>
+  <si>
+    <t>语料库优化未完成</t>
+  </si>
+  <si>
+    <t>继续学习和研究情感机器人项目</t>
+  </si>
+  <si>
+    <t>机器人项目不是很熟悉，有待加强  学习了协同过滤</t>
+  </si>
+  <si>
+    <t>机器人项目学习不太清楚  继续加强</t>
+  </si>
+  <si>
+    <t>运行聊天机器人花费时间较长，有时间继续加强运行</t>
+  </si>
+  <si>
+    <t>知识图谱项目继续加强，各人能力有待提高</t>
+  </si>
+  <si>
+    <t>学习了协同过滤算法，学习了机器人项目</t>
+  </si>
+  <si>
+    <t>协同过滤算法明确，机器人有待加强</t>
+  </si>
+  <si>
+    <t>总体思路有待加强</t>
+  </si>
+  <si>
+    <t>搞懂机器人项目，学习RNN</t>
+  </si>
+  <si>
+    <t>操作聊天机器人项目的流程</t>
+  </si>
+  <si>
+    <t>分词、情感分析、磁性标注</t>
+  </si>
+  <si>
+    <t>分析不熟悉</t>
+  </si>
+  <si>
+    <t>项目勉强运行</t>
+  </si>
+  <si>
+    <t>1：逐一分析聊天机器模块2：启动项目3：熟悉循环神经网络的理论</t>
+  </si>
+  <si>
+    <t>观看了一部分聊起天及其人的代码</t>
+  </si>
+  <si>
+    <t>思路及基本知识不足</t>
+  </si>
+  <si>
+    <t>继续农业知识图谱的工作</t>
+  </si>
+  <si>
+    <t>聊天机器人</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2018.9.13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晚9点30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分</t>
+    </r>
+  </si>
+  <si>
+    <t>1.完成了植物病害和植物关系的构建（全部！！！）。                                        2.学习了情感分析项目，正在深入研究。</t>
+  </si>
+  <si>
+    <t>基本模块学习，终于完成关系了（泪流满面）</t>
+  </si>
+  <si>
+    <t>情感分析项目进度较慢</t>
+  </si>
+  <si>
+    <t>继续学习和研究情感分析项目</t>
+  </si>
+  <si>
+    <t>情感分析小项目</t>
+  </si>
+  <si>
+    <t>对文本进行情感分析</t>
+  </si>
+  <si>
+    <t>模型选择不会</t>
+  </si>
+  <si>
+    <t>有待加强</t>
+  </si>
+  <si>
+    <t>初步 了解情感分析项目，</t>
+  </si>
+  <si>
+    <t>2018.9.13</t>
+  </si>
+  <si>
+    <t>1.练习了关于聊天机器人的项目</t>
+  </si>
+  <si>
+    <t>项目可以具体跑通</t>
+  </si>
+  <si>
+    <t>效果很差，在输入文字少的时候没有效果</t>
+  </si>
+  <si>
+    <t>把web方面的知识练习好，界面处理</t>
+  </si>
+  <si>
+    <t>1.熟悉情感分析2.循环神经网络，</t>
+  </si>
+  <si>
+    <t>循环神经网络门控单元及长短期记忆</t>
+  </si>
+  <si>
+    <t>有些概念较难理解</t>
+  </si>
+  <si>
+    <t>继续农业知识图谱的工作，配合项目组的工作</t>
+  </si>
+  <si>
+    <t>学习机器人项目，初步了解</t>
+  </si>
+  <si>
+    <t>不是完全了解 有待加强</t>
+  </si>
+  <si>
+    <t xml:space="preserve">机器人运行时间很长 </t>
+  </si>
+  <si>
+    <t>努力搞懂知识图谱项目，完成讲师布置的任务</t>
+  </si>
+  <si>
+    <t>2018.09.13</t>
+  </si>
+  <si>
+    <t>模型建立有问题</t>
   </si>
   <si>
     <t>刘丹清</t>
@@ -3003,6 +3504,204 @@
   <si>
     <t>今天先吃饱，不然怎么去想明天吃什么</t>
   </si>
+  <si>
+    <t xml:space="preserve">周五 </t>
+  </si>
+  <si>
+    <t>进行了网页的爬虫处理，实现了爬虫爬出的数据导入了MySQL数据库，熟悉了django的增删改查的功能，对于django的表单提交有了进一步理解。</t>
+  </si>
+  <si>
+    <t>对于django的表单提交
+了解还是不足，对于
+爬虫的一些个功能了解
+还是不足</t>
+  </si>
+  <si>
+    <t>对于知识理论的
+的了解不足</t>
+  </si>
+  <si>
+    <t>对于表单提交的建立进行进一步加深，熟悉爬虫的整体框架</t>
+  </si>
+  <si>
+    <t>今天继续学习关于知识图谱项目内的相关内容，包括爬虫和KNN算法</t>
+  </si>
+  <si>
+    <t>项目相关的分配已经完成，对于自己的模块已经熟悉并开始进行</t>
+  </si>
+  <si>
+    <t>对于如何实现相关关系的构建尚未完全掌握</t>
+  </si>
+  <si>
+    <t>完成知识图谱的关系构建，对相关属性的内容补全进行学习</t>
+  </si>
+  <si>
+    <t>1.继续在网上爬取数据
+2.复习之前学的东西</t>
+  </si>
+  <si>
+    <t>1.在网上找dfs方法
+2.修复bug</t>
+  </si>
+  <si>
+    <t>html前台方法不会写</t>
+  </si>
+  <si>
+    <t>整理scrapy框架,neo4j图形化工具的知识
+理解了网格搜索、交叉验证、TF-IDF的相关知识点</t>
+  </si>
+  <si>
+    <t>完成了知识的解析</t>
+  </si>
+  <si>
+    <t>整体内容琐碎一点
+需要分类整理</t>
+  </si>
+  <si>
+    <t>将思路用代码方式实现,并整合</t>
+  </si>
+  <si>
+    <t>重复敲了scrapy框架 爬取数据并存入数据库；为了配合组内工作，负责neo4j展示界面，包括实体和实体的关系存储，主要学习neo4j的原理，联系csql语法，熟悉数据结构</t>
+  </si>
+  <si>
+    <t>neo4j基本语法已经熟悉，还要进行接下来2大块的学习，使自己顺序成长，满足项目</t>
+  </si>
+  <si>
+    <t>neo4j还未成体系，在srapy-django还存在缺点</t>
+  </si>
+  <si>
+    <t>抓紧熟悉在结构化数据csv，结构化的数据存入在非关系型数据库中，包括标签和实体之间的联系；加紧数据知识图谱在存储方面的细节问题 和相关代码 要达到一定标准</t>
+  </si>
+  <si>
+    <t>1.学会了TF-IDF，TF词频(Term Frequency)，IDF逆向文件频率(Inverse Document Frequency)。TF表示词条在文档d中出现的频率。IDF的主要思想是：如果包含词条t的文档越少，也就是n越小，IDF越大，则说明词条t具有很好的类别区分能力。词频（term frequency，TF）指的是某一个给定的词语在该文件中出现的频率。这个数字是对词数(term count)的归一化，以防止它偏向长的文件。逆向文件频率（inverse document frequency，IDF）是一个词语普遍重要性的度量。某一特定词语的IDF，可以由总文件数目除以包含该词语之文件的数目，再将得到的商取对数得到：网格搜索算法与K折交叉验证，网格搜索算法是一种通过遍历给定的参数组合来优化模型表现的方法。K折交叉验证中，我们用到的数据是训练集中的所有数据。我们将训练集的所有数据平均划分成K份（通常选择K=10），取第K份作为验证集，它的作用就像我们用来估计高考分数的模拟题，余下的K-1份作为交叉验证的训练集。</t>
+  </si>
+  <si>
+    <t>1.爬虫爬了http://fenlei.baike.com/%E6%A4%8D%E7%89%A9/这个网站上的信息</t>
+  </si>
+  <si>
+    <t>open(filename,'wb').write(response.body)爬虫的时候这个代码有问题，就是没有加b</t>
+  </si>
+  <si>
+    <t>今天主要爬了互动百科上的信息，明天争取把农业知识图谱的关系屡清</t>
+  </si>
+  <si>
+    <t>正在通读整个项目，希望可以建立起一个大体框架，把整个项目的流程理顺</t>
+  </si>
+  <si>
+    <t>数据爬取还是有点小问题，关系还是没能确立，小组分工基本都分好了，就是时间有点紧</t>
+  </si>
+  <si>
+    <t>问题就是项目大体框架有一点理解，但是稍微具体一些或者说细致一些，就还是会有一些问题，需要时间去看去敲</t>
+  </si>
+  <si>
+    <t>把需求都实现</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>018.09.07</t>
+    </r>
+  </si>
+  <si>
+    <t>1.理解KNN算法的原理并能够理解KNN_
+predict模块的实现分类的步骤
+2.全面梳理wikidataSpider模块爬取
+俩实体间的关系
+3.在2的基础上构建植物与病虫害的新关
+系（如已存在可直接拿来用）
+4.能够简述农业图谱的每个模块的流程</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.简单理解KNN_predict
+的流程，未达到特熟悉的
+程度
+2.能够熟悉维基百科上实体间
+关系，并口述
+3.在构建关系的时候发现wiki
+上没有sick关系，只有间接的
+所以我决定通过属性之间的描述，
+建立出任意两个实体间的关系，
+选出植物与病害的关系
+4.不只看代码来理解，要将自己
+对代码理解写出来并说出来</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.在运行爬虫时出现未能将网页源代码存入HTML中
+发现在保存文件时打开文件的方式只是W（可写），应该为wb(可写二进制文件）
+2.对于建立新的关系不是很确定具体采用哪种方式可行性高
+3.在理解项目完整流程时还会有许多地方不能够叙述的条理清楚
+</t>
+  </si>
+  <si>
+    <t>1.解决自己这一星期的
+问题
+2.总结自己一周所学的知识，反思学习不足的地方
+3.对新的需求的实现方式做一个代码
+上的计划梳理
+4.小放松一下给自己，给自己做一个下周的学习计划</t>
+  </si>
+  <si>
+    <t>9月7号</t>
+  </si>
+  <si>
+    <t>看了农业知识图谱的相关代码，主要看了neo4j的基础理论和关于neo4j CQL的各种命令。</t>
+  </si>
+  <si>
+    <t>了解了neo4j CQL的一些操作命令，了解neo4j的一些相关知识，概念，优点等。</t>
+  </si>
+  <si>
+    <t>没有找到如何把数据添加到已有的neo4j数据库中。</t>
+  </si>
+  <si>
+    <t>找到把数据添加到已有数据库的方法，尽量完成项目。</t>
+  </si>
+  <si>
+    <t>看了农业知识图谱的相关代码，主要看了neo4j的基础理论和关于neo4j CQL的各种命令。学习了TF-IDF</t>
+  </si>
+  <si>
+    <t>查百度学习如何爬去图片</t>
+  </si>
+  <si>
+    <t>爬去图片还有种类名称不知道以什么方式储存</t>
+  </si>
+  <si>
+    <t>今日事今日毕，明天事明天再说</t>
+  </si>
 </sst>
 </file>
 
@@ -3010,11 +3709,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3049,6 +3748,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -3076,15 +3782,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3097,16 +3810,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3121,32 +3841,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3167,7 +3865,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3189,13 +3887,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -3205,10 +3896,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3245,37 +3951,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3287,7 +3981,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3305,7 +4011,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3317,43 +4089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3371,49 +4107,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3429,10 +4135,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3453,17 +4157,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3487,7 +4191,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3501,26 +4205,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3532,10 +4238,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3544,16 +4250,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3565,16 +4271,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3583,98 +4289,98 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3717,6 +4423,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3751,20 +4466,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3810,12 +4522,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3876,7 +4588,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3888,14 +4600,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4288,12 +5006,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S185"/>
+  <dimension ref="A1:S195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
+      <selection pane="bottomLeft" activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4"/>
@@ -4307,23 +5025,23 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="1" spans="1:6">
-      <c r="A1" s="33" t="s">
+    <row r="1" s="32" customFormat="1" spans="1:6">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4348,671 +5066,671 @@
       </c>
     </row>
     <row r="3" ht="94.05" customHeight="1" spans="1:6">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="36" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="40.8" spans="1:6">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="37">
         <v>43341</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" ht="40.8" spans="1:6">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" ht="244.8" spans="1:6">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" ht="81" customHeight="1" spans="1:6">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" ht="81.6" spans="1:6">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="37">
         <v>43341</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" ht="94.95" customHeight="1" spans="1:6">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="38" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="37">
         <v>43341</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" ht="204" spans="1:6">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="40">
         <v>43341</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="38" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="40"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="40"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="40"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="40"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
     </row>
     <row r="17" ht="57" customHeight="1" spans="1:6">
-      <c r="A17" s="40"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-    </row>
-    <row r="20" s="31" customFormat="1" spans="1:6">
-      <c r="A20" s="41" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+    </row>
+    <row r="20" s="33" customFormat="1" spans="1:6">
+      <c r="A20" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
     </row>
     <row r="21" ht="81.6" spans="1:6">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="40">
         <v>43342</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="38" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" ht="102" spans="1:6">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="40">
         <v>43342</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="38" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" ht="40.8" spans="1:6">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="37">
         <v>43341</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="36" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" ht="61.2" spans="1:6">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="36" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" ht="102" spans="1:6">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="38" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" ht="81.6" spans="1:6">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="37">
         <v>43342</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" ht="40.8" spans="1:7">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="36" t="s">
         <v>88</v>
       </c>
       <c r="G27"/>
     </row>
     <row r="28" ht="55.05" customHeight="1" spans="1:6">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="36" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" ht="142.8" spans="1:6">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="39" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" ht="25.95" customHeight="1" spans="1:6">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:6">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:6">
-      <c r="A32" s="44"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
     </row>
     <row r="33" ht="22.95" customHeight="1" spans="1:6">
-      <c r="A33" s="44"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:6">
-      <c r="A34" s="44"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
     </row>
     <row r="35" ht="24" customHeight="1" spans="1:6">
-      <c r="A35" s="44"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
     </row>
     <row r="36" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A36" s="44"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="44"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="46"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="44"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-    </row>
-    <row r="38" s="32" customFormat="1" spans="1:6">
-      <c r="A38" s="41" t="s">
+      <c r="A37" s="46"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+    </row>
+    <row r="38" s="34" customFormat="1" spans="1:6">
+      <c r="A38" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
     </row>
     <row r="39" ht="40.8" spans="1:6">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="48">
+      <c r="B39" s="50">
         <v>43342</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="47" t="s">
+      <c r="F39" s="49" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" ht="61.2" spans="1:6">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="50">
+      <c r="B40" s="52">
         <v>43343</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="51" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="41" ht="102" spans="1:6">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="47" t="s">
+      <c r="E41" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" ht="81.6" spans="1:6">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="48">
+      <c r="B42" s="50">
         <v>43343</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="49" t="s">
+      <c r="E42" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="49" t="s">
+      <c r="F42" s="51" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="43" ht="45" customHeight="1" spans="1:6">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="47" t="s">
+      <c r="E43" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="49" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="48">
+      <c r="B44" s="50">
         <v>43342</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="47" t="s">
+      <c r="F44" s="49" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" ht="49.05" customHeight="1" spans="1:6">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="51" t="s">
+      <c r="E45" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="51" t="s">
+      <c r="F45" s="53" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="46" ht="67.05" customHeight="1" spans="1:19">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="52" t="s">
+      <c r="D46" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="49" t="s">
+      <c r="E46" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="47" t="s">
+      <c r="F46" s="49" t="s">
         <v>77</v>
       </c>
       <c r="G46"/>
@@ -5030,326 +5748,326 @@
       <c r="S46"/>
     </row>
     <row r="47" ht="46.05" customHeight="1" spans="1:6">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="49" t="s">
+      <c r="E47" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F47" s="49" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" ht="25.05" customHeight="1" spans="1:6">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="1:6">
-      <c r="A49" s="54"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="53"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="55"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
     </row>
     <row r="51" ht="45" customHeight="1" spans="1:6">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
     </row>
     <row r="52" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A52" s="53"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
     </row>
     <row r="53" ht="25.95" customHeight="1" spans="1:6">
-      <c r="A53" s="53"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
     </row>
     <row r="54" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A54" s="53"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="53"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-    </row>
-    <row r="56" s="32" customFormat="1" spans="1:1">
-      <c r="A56" s="32" t="s">
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+    </row>
+    <row r="56" s="34" customFormat="1" spans="1:1">
+      <c r="A56" s="34" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" ht="102" spans="1:6">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="56" t="s">
+      <c r="D57" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="56" t="s">
+      <c r="E57" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="56" t="s">
+      <c r="F57" s="58" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="58" ht="81.6" spans="1:6">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="57">
+      <c r="B58" s="59">
         <v>43346</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="53" t="s">
+      <c r="D58" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="53" t="s">
+      <c r="E58" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="F58" s="53" t="s">
+      <c r="F58" s="55" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="59" ht="61.2" spans="1:6">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="58" t="s">
+      <c r="C59" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="49" t="s">
+      <c r="D59" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="56" t="s">
+      <c r="E59" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="F59" s="58" t="s">
+      <c r="F59" s="60" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="60" ht="102" spans="1:6">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="50">
+      <c r="B60" s="52">
         <v>43346</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="D60" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="E60" s="49" t="s">
+      <c r="E60" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="F60" s="49" t="s">
+      <c r="F60" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="61" ht="34.8" spans="1:6">
-      <c r="A61" s="59" t="s">
+      <c r="A61" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C61" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="60" t="s">
+      <c r="D61" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="60" t="s">
+      <c r="E61" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="60" t="s">
+      <c r="F61" s="62" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" ht="61.2" spans="1:6">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="49" t="s">
+      <c r="D62" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="E62" s="49" t="s">
+      <c r="E62" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="F62" s="49" t="s">
+      <c r="F62" s="51" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="63" ht="61.2" spans="1:6">
-      <c r="A63" s="47" t="s">
+      <c r="A63" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="57">
+      <c r="B63" s="59">
         <v>43346</v>
       </c>
-      <c r="C63" s="53" t="s">
+      <c r="C63" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="49" t="s">
+      <c r="E63" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="49" t="s">
+      <c r="F63" s="51" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="64" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="48">
+      <c r="B64" s="50">
         <v>43346</v>
       </c>
-      <c r="C64" s="47" t="s">
+      <c r="C64" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="D64" s="47" t="s">
+      <c r="D64" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="E64" s="49" t="s">
+      <c r="E64" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="F64" s="47" t="s">
+      <c r="F64" s="49" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" ht="27" customHeight="1" spans="1:6">
-      <c r="A65" s="53" t="s">
+      <c r="A65" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="57">
+      <c r="B65" s="59">
         <v>43346</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
     </row>
     <row r="66" ht="33" customHeight="1" spans="1:6">
-      <c r="A66" s="53"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
+      <c r="A66" s="55"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
     </row>
     <row r="67" ht="30" customHeight="1" spans="1:6">
-      <c r="A67" s="53"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="53"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
+      <c r="A68" s="55"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="53"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
     </row>
     <row r="70" ht="22.95" customHeight="1" spans="1:6">
-      <c r="A70" s="53"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
+      <c r="A70" s="55"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
     </row>
     <row r="71" ht="33" customHeight="1" spans="1:6">
-      <c r="A71" s="53"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
+      <c r="A71" s="55"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="53"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-    </row>
-    <row r="73" s="32" customFormat="1" spans="1:1">
-      <c r="A73" s="32" t="s">
+      <c r="A72" s="55"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+    </row>
+    <row r="73" s="34" customFormat="1" spans="1:1">
+      <c r="A73" s="34" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5377,7 +6095,7 @@
       <c r="A75" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="62">
+      <c r="B75" s="64">
         <v>43347</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -5417,7 +6135,7 @@
       <c r="A77" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="17">
+      <c r="B77" s="20">
         <v>43347</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -5457,7 +6175,7 @@
       <c r="A79" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="17">
+      <c r="B79" s="20">
         <v>43347</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -5474,10 +6192,10 @@
       </c>
     </row>
     <row r="80" ht="28.8" spans="1:6">
-      <c r="A80" s="63" t="s">
+      <c r="A80" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="63" t="s">
+      <c r="B80" s="65" t="s">
         <v>151</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -5486,10 +6204,10 @@
       <c r="D80" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E80" s="64" t="s">
+      <c r="E80" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="63" t="s">
+      <c r="F80" s="65" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5497,7 +6215,7 @@
       <c r="A81" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B81" s="17">
+      <c r="B81" s="20">
         <v>43347</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -5514,13 +6232,13 @@
       </c>
     </row>
     <row r="82" ht="28.05" customHeight="1" spans="1:6">
-      <c r="A82" s="65" t="s">
+      <c r="A82" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="66">
+      <c r="B82" s="68">
         <v>43346</v>
       </c>
-      <c r="C82" s="65" t="s">
+      <c r="C82" s="67" t="s">
         <v>150</v>
       </c>
       <c r="D82" s="5"/>
@@ -5591,19 +6309,19 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" s="32" customFormat="1" spans="1:6">
-      <c r="A91" s="41"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="41"/>
+    <row r="91" s="34" customFormat="1" spans="1:6">
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
     </row>
     <row r="92" ht="102" spans="1:6">
       <c r="A92" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B92" s="62">
+      <c r="B92" s="64">
         <v>43348</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -5623,7 +6341,7 @@
       <c r="A93" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="62">
+      <c r="B93" s="64">
         <v>43348</v>
       </c>
       <c r="C93" s="5" t="s">
@@ -5643,7 +6361,7 @@
       <c r="A94" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B94" s="62">
+      <c r="B94" s="64">
         <v>43348</v>
       </c>
       <c r="C94" s="5" t="s">
@@ -5663,7 +6381,7 @@
       <c r="A95" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="62">
+      <c r="B95" s="64">
         <v>43348</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -5700,22 +6418,22 @@
       </c>
     </row>
     <row r="97" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A97" s="67" t="s">
+      <c r="A97" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B97" s="67" t="s">
+      <c r="B97" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="C97" s="67" t="s">
+      <c r="C97" s="69" t="s">
         <v>202</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E97" s="67" t="s">
+      <c r="E97" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="F97" s="67" t="s">
+      <c r="F97" s="69" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5743,7 +6461,7 @@
       <c r="A99" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="62">
+      <c r="B99" s="64">
         <v>43348</v>
       </c>
       <c r="C99" s="5" t="s">
@@ -5760,13 +6478,13 @@
       </c>
     </row>
     <row r="100" ht="24" customHeight="1" spans="1:6">
-      <c r="A100" s="65" t="s">
+      <c r="A100" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="66">
+      <c r="B100" s="68">
         <v>43348</v>
       </c>
-      <c r="C100" s="65" t="s">
+      <c r="C100" s="67" t="s">
         <v>150</v>
       </c>
       <c r="D100" s="5"/>
@@ -5837,19 +6555,19 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" s="32" customFormat="1" spans="1:6">
-      <c r="A109" s="41"/>
-      <c r="B109" s="41"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="41"/>
-      <c r="F109" s="41"/>
+    <row r="109" s="34" customFormat="1" spans="1:6">
+      <c r="A109" s="43"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="43"/>
     </row>
     <row r="110" ht="81.6" spans="1:6">
       <c r="A110" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B110" s="62">
+      <c r="B110" s="64">
         <v>43349</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -5932,7 +6650,7 @@
       <c r="B114" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C114" s="68" t="s">
+      <c r="C114" s="70" t="s">
         <v>231</v>
       </c>
       <c r="D114" s="5" t="s">
@@ -5949,7 +6667,7 @@
       <c r="A115" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B115" s="62">
+      <c r="B115" s="64">
         <v>43349</v>
       </c>
       <c r="C115" s="5" t="s">
@@ -5969,7 +6687,7 @@
       <c r="A116" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B116" s="62">
+      <c r="B116" s="64">
         <v>43349</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -5989,7 +6707,7 @@
       <c r="A117" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B117" s="62">
+      <c r="B117" s="64">
         <v>43349</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -6007,7 +6725,7 @@
       <c r="A118" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B118" s="62">
+      <c r="B118" s="64">
         <v>43349</v>
       </c>
       <c r="C118" s="5" t="s">
@@ -6049,17 +6767,17 @@
     </row>
     <row r="123" ht="22.95" customHeight="1"/>
     <row r="126" spans="2:2">
-      <c r="B126" s="69"/>
+      <c r="B126" s="71"/>
     </row>
     <row r="127" ht="9" customHeight="1" spans="2:2">
-      <c r="B127" s="69"/>
-    </row>
-    <row r="128" s="32" customFormat="1"/>
+      <c r="B127" s="71"/>
+    </row>
+    <row r="128" s="34" customFormat="1"/>
     <row r="129" ht="61.2" spans="1:6">
       <c r="A129" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B129" s="62">
+      <c r="B129" s="64">
         <v>43350</v>
       </c>
       <c r="C129" s="5" t="s">
@@ -6082,7 +6800,7 @@
       <c r="B130" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C130" s="70" t="s">
+      <c r="C130" s="72" t="s">
         <v>253</v>
       </c>
       <c r="D130" s="5" t="s">
@@ -6099,10 +6817,10 @@
       <c r="A131" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B131" s="62">
+      <c r="B131" s="64">
         <v>43350</v>
       </c>
-      <c r="C131" s="70" t="s">
+      <c r="C131" s="72" t="s">
         <v>257</v>
       </c>
       <c r="D131" s="5" t="s">
@@ -6115,24 +6833,24 @@
         <v>260</v>
       </c>
     </row>
-    <row r="132" ht="7.95" customHeight="1" spans="1:6">
+    <row r="132" ht="61.2" spans="1:6">
       <c r="A132" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>154</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" ht="34.05" customHeight="1" spans="1:6">
@@ -6140,27 +6858,27 @@
         <v>34</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C133" s="70" t="s">
         <v>265</v>
+      </c>
+      <c r="C133" s="72" t="s">
+        <v>266</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134" ht="30" customHeight="1" spans="1:6">
       <c r="A134" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B134" s="64" t="s">
-        <v>268</v>
+      <c r="B134" s="66" t="s">
+        <v>261</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>269</v>
@@ -6182,7 +6900,7 @@
       <c r="B135" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C135" s="70" t="s">
+      <c r="C135" s="72" t="s">
         <v>253</v>
       </c>
       <c r="D135" s="5" t="s">
@@ -6199,7 +6917,7 @@
       <c r="A136" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B136" s="62">
+      <c r="B136" s="64">
         <v>43350</v>
       </c>
       <c r="C136" s="5" t="s">
@@ -6219,7 +6937,7 @@
       <c r="A137" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B137" s="62">
+      <c r="B137" s="64">
         <v>43350</v>
       </c>
       <c r="C137" s="5" t="s">
@@ -6239,7 +6957,7 @@
       <c r="A138" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B138" s="62">
+      <c r="B138" s="64">
         <v>43350</v>
       </c>
       <c r="C138" s="5" t="s">
@@ -6256,7 +6974,7 @@
       </c>
     </row>
     <row r="139" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B139" s="69"/>
+      <c r="B139" s="71"/>
     </row>
     <row r="140" ht="28.05" customHeight="1"/>
     <row r="143" ht="22.05" customHeight="1"/>
@@ -6264,76 +6982,707 @@
     <row r="145" ht="22.05" customHeight="1"/>
     <row r="146" ht="22.05" customHeight="1"/>
     <row r="147" ht="21" customHeight="1"/>
-    <row r="148" s="32" customFormat="1"/>
-    <row r="149" ht="22.95" customHeight="1"/>
-    <row r="150" spans="2:2">
-      <c r="B150" s="71"/>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="71"/>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="71"/>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="71"/>
-    </row>
-    <row r="154" spans="4:4">
-      <c r="D154" s="72"/>
-    </row>
-    <row r="155" ht="24" customHeight="1"/>
-    <row r="156" ht="22.95" customHeight="1"/>
+    <row r="148" s="34" customFormat="1"/>
+    <row r="149" ht="22.95" customHeight="1" spans="1:6">
+      <c r="A149" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B149" s="64">
+        <v>43353</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="150" ht="40.8" spans="1:6">
+      <c r="A150" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C150" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="151" ht="40.8" spans="1:6">
+      <c r="A151" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B151" s="73">
+        <v>43353</v>
+      </c>
+      <c r="C151" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="152" ht="102" spans="1:6">
+      <c r="A152" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C152" s="72" t="s">
+        <v>298</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C153" s="72" t="s">
+        <v>302</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" ht="61.2" spans="1:6">
+      <c r="A154" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="155" ht="24" customHeight="1" spans="1:6">
+      <c r="A155" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B155" s="64">
+        <v>43353</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="156" ht="22.95" customHeight="1" spans="1:6">
+      <c r="A156" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B156" s="64">
+        <v>43353</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" ht="61.2" spans="1:6">
+      <c r="A157" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" s="64">
+        <v>43353</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
     <row r="158" ht="30" customHeight="1"/>
     <row r="159" ht="28.95" customHeight="1"/>
     <row r="160" ht="28.95" customHeight="1"/>
     <row r="161" ht="24" customHeight="1"/>
     <row r="163" ht="28.95" customHeight="1"/>
     <row r="164" ht="25.95" customHeight="1" spans="2:2">
-      <c r="B164" s="71"/>
-    </row>
-    <row r="165" s="32" customFormat="1"/>
-    <row r="166" ht="25.95" customHeight="1" spans="4:4">
-      <c r="D166" s="73"/>
-    </row>
-    <row r="168" ht="27" customHeight="1"/>
-    <row r="169" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B169" s="71"/>
-    </row>
-    <row r="170" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B170" s="71"/>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="71"/>
-    </row>
-    <row r="172" ht="12" customHeight="1" spans="2:2">
-      <c r="B172" s="71"/>
-    </row>
-    <row r="173" ht="34.05" customHeight="1"/>
+      <c r="B164" s="74"/>
+    </row>
+    <row r="165" s="34" customFormat="1"/>
+    <row r="166" ht="25.95" customHeight="1" spans="1:6">
+      <c r="A166" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B166" s="64">
+        <v>43354</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D166" s="75" t="s">
+        <v>322</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="167" ht="40.8" spans="1:6">
+      <c r="A167" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B167" s="64">
+        <v>43354</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="168" ht="27" customHeight="1" spans="1:6">
+      <c r="A168" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C168" s="72" t="s">
+        <v>330</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="169" ht="13.05" customHeight="1" spans="1:6">
+      <c r="A169" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C169" s="72" t="s">
+        <v>335</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="170" ht="13.05" customHeight="1" spans="1:6">
+      <c r="A170" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" s="64">
+        <v>43355</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C171" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="172" ht="12" customHeight="1" spans="1:6">
+      <c r="A172" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B172" s="73">
+        <v>43354</v>
+      </c>
+      <c r="C172" s="72" t="s">
+        <v>347</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="173" ht="34.05" customHeight="1" spans="1:6">
+      <c r="A173" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B174" s="64">
+        <v>43354</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="175" ht="31.05" customHeight="1"/>
-    <row r="177" s="32" customFormat="1"/>
-    <row r="178" spans="2:2">
-      <c r="B178" s="71"/>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179" s="71"/>
-    </row>
-    <row r="180" spans="2:2">
-      <c r="B180" s="69"/>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181" s="69"/>
-    </row>
-    <row r="182" spans="2:2">
-      <c r="B182" s="69"/>
-    </row>
-    <row r="183" spans="2:2">
-      <c r="B183" s="69"/>
-    </row>
-    <row r="184" spans="2:2">
-      <c r="B184" s="69"/>
-    </row>
-    <row r="185" spans="2:2">
-      <c r="B185" s="69"/>
+    <row r="177" s="34" customFormat="1"/>
+    <row r="178" spans="1:6">
+      <c r="A178" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C178" s="76" t="s">
+        <v>357</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C179" s="76" t="s">
+        <v>344</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="180" ht="81.6" spans="1:6">
+      <c r="A180" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C180" s="72" t="s">
+        <v>365</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="181" ht="81.6" spans="1:6">
+      <c r="A181" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B181" s="64">
+        <v>43355</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="182" ht="40.8" spans="1:6">
+      <c r="A182" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B182" s="64">
+        <v>43355</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183" s="18">
+        <v>43355</v>
+      </c>
+      <c r="C183" s="76" t="s">
+        <v>376</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="184" ht="40.8" spans="1:6">
+      <c r="A184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" s="20">
+        <v>43355</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B185" s="20">
+        <v>43355</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="44"/>
+      <c r="B187" s="44"/>
+      <c r="C187" s="44"/>
+      <c r="D187" s="44"/>
+      <c r="E187" s="44"/>
+      <c r="F187" s="44"/>
+    </row>
+    <row r="188" ht="61.2" spans="1:6">
+      <c r="A188" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C188" s="72" t="s">
+        <v>386</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" s="18">
+        <v>43356</v>
+      </c>
+      <c r="C189" s="76" t="s">
+        <v>390</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B190" s="64">
+        <v>43356</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C191" s="76" t="s">
+        <v>396</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B192" s="20">
+        <v>43356</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B193" s="20">
+        <v>43356</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="194" ht="61.2" spans="1:6">
+      <c r="A194" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B194" s="64">
+        <v>43356</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" s="77" t="s">
+        <v>408</v>
+      </c>
+      <c r="C195" s="76" t="s">
+        <v>344</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6383,202 +7732,202 @@
     </row>
     <row r="2" ht="81.6" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>285</v>
+        <v>411</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>286</v>
+        <v>412</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>287</v>
+        <v>413</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>288</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" ht="61.2" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>289</v>
+        <v>415</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>290</v>
+        <v>416</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>291</v>
+        <v>417</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" ht="306" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>294</v>
+        <v>420</v>
       </c>
       <c r="B4" s="10">
         <v>43341</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>295</v>
+        <v>421</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>297</v>
+        <v>422</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>423</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>298</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" ht="102" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="15">
+        <v>425</v>
+      </c>
+      <c r="B5" s="18">
         <v>43341</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>301</v>
+        <v>427</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>302</v>
+        <v>428</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>303</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" ht="61.2" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>304</v>
+        <v>430</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>305</v>
+        <v>431</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>306</v>
+        <v>432</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>307</v>
+        <v>433</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>308</v>
+        <v>434</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>309</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" ht="102" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>312</v>
+        <v>437</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>438</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>314</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" ht="224.4" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B8" s="17">
+        <v>441</v>
+      </c>
+      <c r="B8" s="20">
         <v>43341</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>316</v>
+        <v>442</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>317</v>
+        <v>443</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>318</v>
+        <v>444</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>319</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>320</v>
+        <v>446</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>321</v>
+        <v>447</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>322</v>
+        <v>448</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>323</v>
+        <v>449</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>324</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" ht="163.2" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B10" s="18">
+        <v>451</v>
+      </c>
+      <c r="B10" s="21">
         <v>43341</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>329</v>
+        <v>452</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="11" ht="102" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>330</v>
+        <v>456</v>
       </c>
       <c r="B11" s="10">
         <v>43341</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>331</v>
+        <v>457</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>332</v>
+        <v>458</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>334</v>
+        <v>459</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="12" ht="20.4" spans="1:6">
@@ -6600,7 +7949,7 @@
     <row r="14" ht="20.4" spans="1:6">
       <c r="A14" s="12"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6633,202 +7982,202 @@
     </row>
     <row r="18" ht="163.2" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>335</v>
+        <v>461</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>337</v>
+        <v>463</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>338</v>
+        <v>464</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>339</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" ht="61.2" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B19" s="15">
+        <v>425</v>
+      </c>
+      <c r="B19" s="18">
         <v>43343</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>340</v>
+        <v>466</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>341</v>
+        <v>467</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>342</v>
+        <v>468</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>343</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" ht="81.6" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>289</v>
+        <v>415</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>344</v>
+        <v>470</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>345</v>
+        <v>471</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>346</v>
+        <v>472</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" ht="61.2" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>347</v>
+        <v>473</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>348</v>
+        <v>474</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>349</v>
+        <v>475</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>350</v>
+        <v>476</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>351</v>
+        <v>477</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>352</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" ht="409.5" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>294</v>
+        <v>420</v>
       </c>
       <c r="B22" s="10">
         <v>43343</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>353</v>
+        <v>479</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>354</v>
+        <v>480</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>356</v>
+        <v>481</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="23" ht="61.2" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>335</v>
+        <v>461</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>357</v>
+        <v>483</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>358</v>
+        <v>484</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>359</v>
+        <v>485</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>360</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" ht="122.4" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B24" s="22">
+        <v>441</v>
+      </c>
+      <c r="B24" s="25">
         <v>43343</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>361</v>
+        <v>487</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>362</v>
+        <v>488</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>363</v>
+        <v>489</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>364</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" ht="163.2" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B25" s="23">
+        <v>456</v>
+      </c>
+      <c r="B25" s="26">
         <v>43343</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>365</v>
+        <v>491</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>366</v>
+        <v>492</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>367</v>
+        <v>493</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>368</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" ht="204" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B26" s="22">
+        <v>451</v>
+      </c>
+      <c r="B26" s="25">
         <v>43343</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>371</v>
+      <c r="C26" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>497</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>372</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" ht="102" spans="1:6">
       <c r="A27" s="6" t="s">
-        <v>320</v>
+        <v>446</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>335</v>
+        <v>461</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>373</v>
+        <v>499</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>375</v>
+        <v>501</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>376</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" ht="20.4" spans="1:6">
@@ -6840,52 +8189,52 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" ht="20.4" spans="1:6">
-      <c r="A29" s="25"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="25"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" ht="20.4" spans="1:6">
-      <c r="A30" s="25"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="25"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" ht="20.4" spans="1:6">
-      <c r="A31" s="25"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="25"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" ht="20.4" spans="1:6">
-      <c r="A32" s="25"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" ht="20.4" spans="1:6">
-      <c r="A33" s="25"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="25"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" ht="20.4" spans="1:6">
-      <c r="A34" s="25"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" ht="20.4" spans="1:6">
       <c r="A35" s="11" t="s">
@@ -6899,208 +8248,208 @@
     </row>
     <row r="36" ht="122.4" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>377</v>
+        <v>503</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>378</v>
+        <v>504</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>379</v>
+        <v>505</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>380</v>
+        <v>506</v>
       </c>
     </row>
     <row r="37" ht="81.6" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B37" s="15">
+        <v>425</v>
+      </c>
+      <c r="B37" s="18">
         <v>43346</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>381</v>
+        <v>507</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>382</v>
+        <v>508</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>383</v>
+        <v>509</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>384</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" ht="61.2" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>385</v>
+        <v>511</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>386</v>
+        <v>512</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>387</v>
+        <v>513</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>388</v>
+        <v>514</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>352</v>
+        <v>478</v>
       </c>
     </row>
     <row r="39" ht="40.8" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>289</v>
+        <v>415</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>390</v>
+        <v>516</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>391</v>
+        <v>517</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>392</v>
+        <v>518</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" ht="122.4" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>294</v>
+        <v>420</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>393</v>
+        <v>519</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>394</v>
+        <v>520</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>395</v>
+        <v>521</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>396</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" ht="102" spans="1:6">
       <c r="A41" s="6" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>397</v>
+        <v>523</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>398</v>
+        <v>524</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>399</v>
+        <v>525</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>400</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" ht="102" spans="1:6">
       <c r="A42" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B42" s="23">
+        <v>456</v>
+      </c>
+      <c r="B42" s="26">
         <v>43346</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>401</v>
+        <v>527</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>402</v>
+        <v>528</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>403</v>
+        <v>529</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>404</v>
+        <v>530</v>
       </c>
     </row>
     <row r="43" ht="183.6" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B43" s="22">
+        <v>441</v>
+      </c>
+      <c r="B43" s="25">
         <v>43346</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>405</v>
+        <v>531</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>406</v>
+        <v>532</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>407</v>
+        <v>533</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>408</v>
+        <v>534</v>
       </c>
     </row>
     <row r="44" ht="81.6" spans="1:6">
       <c r="A44" s="4" t="s">
-        <v>320</v>
+        <v>446</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>409</v>
+        <v>535</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>410</v>
+        <v>536</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>411</v>
+        <v>537</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>412</v>
+        <v>538</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>413</v>
+        <v>539</v>
       </c>
     </row>
     <row r="45" ht="122.4" spans="1:6">
       <c r="A45" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B45" s="22">
+        <v>451</v>
+      </c>
+      <c r="B45" s="25">
         <v>43346</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>414</v>
+        <v>540</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>415</v>
+        <v>541</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>416</v>
+        <v>542</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>417</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" ht="20.4" spans="1:6">
       <c r="A46" s="6"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="19"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -7155,7 +8504,7 @@
     </row>
     <row r="53" ht="20.4" spans="1:6">
       <c r="A53" s="11" t="s">
-        <v>418</v>
+        <v>544</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -7165,205 +8514,205 @@
     </row>
     <row r="54" ht="20.4" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>420</v>
+        <v>546</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>421</v>
+        <v>547</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>422</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" ht="61.2" spans="1:6">
       <c r="A55" s="4" t="s">
-        <v>423</v>
+        <v>549</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>424</v>
+        <v>550</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>425</v>
+        <v>551</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>426</v>
+        <v>552</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>427</v>
+        <v>553</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>428</v>
+        <v>554</v>
       </c>
     </row>
     <row r="56" ht="40.8" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B56" s="15">
+        <v>425</v>
+      </c>
+      <c r="B56" s="18">
         <v>43347</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>429</v>
+        <v>555</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>430</v>
+        <v>556</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>431</v>
+        <v>557</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>432</v>
+        <v>558</v>
       </c>
     </row>
     <row r="57" ht="20.4" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>289</v>
+        <v>415</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>433</v>
+        <v>559</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>434</v>
+        <v>560</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>435</v>
+        <v>561</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" ht="163.2" spans="1:6">
       <c r="A58" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B58" s="23">
+        <v>420</v>
+      </c>
+      <c r="B58" s="26">
         <v>43347</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>436</v>
+        <v>562</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>437</v>
+        <v>563</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>438</v>
+        <v>564</v>
       </c>
       <c r="F58" s="5"/>
     </row>
     <row r="59" ht="81.6" spans="1:6">
       <c r="A59" s="6" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>439</v>
+        <v>565</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>440</v>
+        <v>566</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>441</v>
+        <v>567</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>442</v>
+        <v>568</v>
       </c>
     </row>
     <row r="60" ht="102" spans="1:6">
       <c r="A60" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B60" s="22">
+        <v>441</v>
+      </c>
+      <c r="B60" s="25">
         <v>43347</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>443</v>
+        <v>569</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>444</v>
+        <v>570</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>445</v>
+        <v>571</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>446</v>
+        <v>572</v>
       </c>
     </row>
     <row r="61" ht="81.6" spans="1:6">
       <c r="A61" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B61" s="22">
+        <v>451</v>
+      </c>
+      <c r="B61" s="25">
         <v>43347</v>
       </c>
-      <c r="C61" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>448</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>450</v>
+      <c r="C61" s="27" t="s">
+        <v>573</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>575</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="62" ht="142.8" spans="1:6">
       <c r="A62" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B62" s="23">
+        <v>456</v>
+      </c>
+      <c r="B62" s="26">
         <v>43347</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>451</v>
+        <v>577</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>453</v>
+        <v>578</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>579</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63" ht="61.2" spans="1:6">
       <c r="A63" s="4" t="s">
-        <v>320</v>
+        <v>446</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>455</v>
+        <v>581</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>456</v>
+        <v>582</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>457</v>
+        <v>583</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>458</v>
+        <v>584</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>459</v>
+        <v>585</v>
       </c>
     </row>
     <row r="64" ht="20.4" spans="1:6">
       <c r="A64" s="11" t="s">
-        <v>418</v>
+        <v>544</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -7373,202 +8722,202 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="B66" t="s">
         <v>221</v>
       </c>
       <c r="C66" t="s">
-        <v>460</v>
+        <v>586</v>
       </c>
       <c r="D66" t="s">
-        <v>461</v>
+        <v>587</v>
       </c>
       <c r="E66" t="s">
-        <v>462</v>
+        <v>588</v>
       </c>
       <c r="F66" t="s">
-        <v>463</v>
+        <v>589</v>
       </c>
     </row>
     <row r="67" ht="28.8" spans="1:6">
       <c r="A67" t="s">
-        <v>464</v>
+        <v>590</v>
       </c>
       <c r="B67" t="s">
         <v>221</v>
       </c>
       <c r="C67" t="s">
-        <v>465</v>
+        <v>591</v>
       </c>
       <c r="D67" t="s">
-        <v>466</v>
+        <v>592</v>
       </c>
       <c r="E67" t="s">
-        <v>463</v>
+        <v>589</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>467</v>
+        <v>593</v>
       </c>
     </row>
     <row r="68" ht="28.8" spans="1:6">
       <c r="A68" t="s">
-        <v>315</v>
+        <v>441</v>
       </c>
       <c r="B68" t="s">
         <v>221</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>468</v>
+        <v>594</v>
       </c>
       <c r="D68" t="s">
-        <v>469</v>
+        <v>595</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>470</v>
+        <v>596</v>
       </c>
     </row>
     <row r="69" ht="28.8" spans="1:6">
       <c r="A69" t="s">
-        <v>330</v>
+        <v>456</v>
       </c>
       <c r="B69" t="s">
         <v>221</v>
       </c>
       <c r="C69" t="s">
-        <v>471</v>
+        <v>597</v>
       </c>
       <c r="D69" t="s">
-        <v>472</v>
+        <v>598</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>470</v>
+        <v>596</v>
       </c>
       <c r="F69" t="s">
-        <v>473</v>
+        <v>599</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>299</v>
+        <v>425</v>
       </c>
       <c r="B70" t="s">
         <v>221</v>
       </c>
       <c r="C70" t="s">
-        <v>474</v>
+        <v>600</v>
       </c>
       <c r="D70" t="s">
-        <v>475</v>
+        <v>601</v>
       </c>
       <c r="E70" t="s">
-        <v>476</v>
+        <v>602</v>
       </c>
       <c r="F70" t="s">
-        <v>477</v>
+        <v>603</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>289</v>
+        <v>415</v>
       </c>
       <c r="B71" t="s">
         <v>221</v>
       </c>
       <c r="C71" t="s">
-        <v>433</v>
+        <v>559</v>
       </c>
       <c r="D71" t="s">
-        <v>478</v>
+        <v>604</v>
       </c>
       <c r="E71" t="s">
-        <v>479</v>
+        <v>605</v>
       </c>
       <c r="F71" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72" ht="28.8" spans="1:6">
       <c r="A72" t="s">
-        <v>325</v>
+        <v>451</v>
       </c>
       <c r="B72" t="s">
         <v>221</v>
       </c>
       <c r="C72" t="s">
-        <v>480</v>
+        <v>606</v>
       </c>
       <c r="D72" t="s">
-        <v>481</v>
+        <v>607</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>482</v>
+        <v>608</v>
       </c>
       <c r="F72" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
     </row>
     <row r="73" ht="28.8" spans="1:6">
       <c r="A73" t="s">
-        <v>484</v>
+        <v>610</v>
       </c>
       <c r="B73" t="s">
         <v>221</v>
       </c>
       <c r="C73" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="D73" t="s">
-        <v>426</v>
+        <v>552</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="F73" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
     </row>
     <row r="74" ht="72" spans="1:6">
       <c r="A74" t="s">
-        <v>294</v>
+        <v>420</v>
       </c>
       <c r="B74" t="s">
         <v>221</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>488</v>
+        <v>614</v>
       </c>
       <c r="D74" t="s">
-        <v>489</v>
+        <v>615</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>490</v>
+        <v>616</v>
       </c>
       <c r="F74" t="s">
-        <v>491</v>
+        <v>617</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
       <c r="B75" t="s">
         <v>221</v>
       </c>
       <c r="C75" t="s">
-        <v>492</v>
+        <v>618</v>
       </c>
       <c r="D75" t="s">
-        <v>493</v>
+        <v>619</v>
       </c>
       <c r="E75" t="s">
-        <v>494</v>
+        <v>620</v>
       </c>
       <c r="F75" t="s">
-        <v>495</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -7580,10 +8929,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7618,207 +8967,207 @@
     </row>
     <row r="2" ht="122.4" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>496</v>
+        <v>622</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>497</v>
+        <v>623</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>498</v>
+        <v>624</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>499</v>
+        <v>625</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>500</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>501</v>
+        <v>627</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>502</v>
+        <v>628</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>503</v>
+        <v>629</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>504</v>
+        <v>630</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>505</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" ht="40.8" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>506</v>
+        <v>632</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>507</v>
+        <v>633</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>508</v>
+        <v>634</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>509</v>
+        <v>635</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>510</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" ht="142.8" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>511</v>
+        <v>637</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>512</v>
+        <v>638</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>513</v>
+        <v>639</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>514</v>
+        <v>640</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>515</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" ht="326.4" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>516</v>
+        <v>642</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>517</v>
+        <v>643</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>518</v>
+        <v>644</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>519</v>
+        <v>645</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>520</v>
+        <v>646</v>
       </c>
     </row>
     <row r="7" ht="409.5" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>521</v>
+        <v>647</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>522</v>
+        <v>648</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>523</v>
+        <v>649</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>524</v>
+        <v>650</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>525</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" ht="285.6" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>526</v>
+        <v>652</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>527</v>
+        <v>653</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>528</v>
+        <v>654</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>529</v>
+        <v>655</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>530</v>
+        <v>656</v>
       </c>
     </row>
     <row r="9" ht="40.8" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>531</v>
+        <v>657</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>532</v>
+        <v>658</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>533</v>
+        <v>659</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>534</v>
+        <v>660</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>535</v>
+        <v>661</v>
       </c>
     </row>
     <row r="10" ht="142.8" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>536</v>
+        <v>662</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>512</v>
+        <v>638</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>537</v>
+        <v>663</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>538</v>
+        <v>664</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>539</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" ht="204" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>540</v>
+        <v>666</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>541</v>
+        <v>667</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>542</v>
+        <v>668</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>543</v>
+        <v>669</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>544</v>
+        <v>670</v>
       </c>
     </row>
     <row r="12" ht="20.4" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>418</v>
+        <v>544</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -7848,207 +9197,207 @@
     </row>
     <row r="14" ht="81.6" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>536</v>
+        <v>662</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>545</v>
+        <v>671</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>546</v>
+        <v>672</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>547</v>
+        <v>673</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>548</v>
+        <v>674</v>
       </c>
     </row>
     <row r="15" ht="326.4" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>526</v>
+        <v>652</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>549</v>
+        <v>675</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>550</v>
+        <v>676</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>551</v>
+        <v>677</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>552</v>
+        <v>678</v>
       </c>
     </row>
     <row r="16" ht="142.8" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>496</v>
+        <v>622</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>553</v>
+        <v>679</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>554</v>
+        <v>680</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>555</v>
+        <v>681</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>556</v>
+        <v>682</v>
       </c>
     </row>
     <row r="17" ht="81.6" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>557</v>
+        <v>683</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>558</v>
+        <v>684</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>559</v>
+        <v>685</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>560</v>
+        <v>686</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>561</v>
+        <v>687</v>
       </c>
     </row>
     <row r="18" ht="122.4" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>563</v>
+        <v>689</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>564</v>
+        <v>690</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>565</v>
+        <v>691</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>566</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" ht="367.2" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>516</v>
+        <v>642</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>567</v>
+        <v>693</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>568</v>
+        <v>694</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>569</v>
+        <v>695</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>570</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" ht="142.8" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>571</v>
+        <v>697</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>572</v>
+        <v>698</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>573</v>
+        <v>699</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>574</v>
+        <v>700</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>575</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" ht="81.6" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>531</v>
+        <v>657</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>576</v>
+        <v>702</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>577</v>
+        <v>703</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>578</v>
+        <v>704</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>579</v>
+        <v>705</v>
       </c>
     </row>
     <row r="22" ht="409.5" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>521</v>
+        <v>647</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>580</v>
+        <v>706</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>581</v>
+        <v>707</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>582</v>
+        <v>708</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>583</v>
+        <v>709</v>
       </c>
     </row>
     <row r="23" ht="102" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>584</v>
+        <v>710</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>585</v>
+        <v>711</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>586</v>
+        <v>712</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>587</v>
+        <v>713</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>544</v>
+        <v>670</v>
       </c>
     </row>
     <row r="24" ht="20.4" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>588</v>
+        <v>714</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -8076,202 +9425,202 @@
     </row>
     <row r="26" ht="81.6" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>536</v>
+        <v>662</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>589</v>
+        <v>715</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>590</v>
+        <v>716</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>591</v>
+        <v>717</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>592</v>
+        <v>718</v>
       </c>
     </row>
     <row r="27" ht="387.6" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>516</v>
+        <v>642</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>593</v>
+        <v>719</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>594</v>
+        <v>720</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>595</v>
+        <v>721</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>596</v>
+        <v>722</v>
       </c>
     </row>
     <row r="28" ht="142.8" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>521</v>
+        <v>647</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>597</v>
+        <v>723</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>598</v>
+        <v>724</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>599</v>
+        <v>725</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>600</v>
+        <v>726</v>
       </c>
     </row>
     <row r="29" ht="409.5" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>601</v>
+        <v>727</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>602</v>
+        <v>728</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>603</v>
+        <v>729</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>604</v>
+        <v>730</v>
       </c>
     </row>
     <row r="30" ht="122.4" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>531</v>
+        <v>657</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>605</v>
+        <v>731</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>606</v>
+        <v>732</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>607</v>
+        <v>733</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>608</v>
+        <v>734</v>
       </c>
     </row>
     <row r="31" ht="409.5" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>526</v>
+        <v>652</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>609</v>
+        <v>735</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>610</v>
+        <v>736</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>611</v>
+        <v>737</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>612</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32" ht="163.2" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>496</v>
+        <v>622</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>613</v>
+        <v>739</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>614</v>
+        <v>740</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>615</v>
+        <v>741</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>616</v>
+        <v>742</v>
       </c>
     </row>
     <row r="33" ht="409.5" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>511</v>
+        <v>637</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>617</v>
+        <v>743</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>618</v>
+        <v>744</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>619</v>
+        <v>745</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>620</v>
+        <v>746</v>
       </c>
     </row>
     <row r="34" ht="102" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>584</v>
+        <v>710</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>621</v>
+        <v>747</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>622</v>
+        <v>748</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>623</v>
+        <v>749</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>624</v>
+        <v>750</v>
       </c>
     </row>
     <row r="35" ht="81.6" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>557</v>
+        <v>683</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>625</v>
+        <v>751</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>626</v>
+        <v>752</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>599</v>
+        <v>725</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>627</v>
+        <v>753</v>
       </c>
     </row>
     <row r="36" ht="20.4" spans="1:6">
@@ -8306,22 +9655,22 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="5" t="s">
-        <v>496</v>
+        <v>622</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>628</v>
+        <v>754</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>629</v>
+        <v>755</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>630</v>
+        <v>756</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>631</v>
+        <v>757</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -8358,22 +9707,22 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
-        <v>526</v>
+        <v>652</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>632</v>
+        <v>758</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>633</v>
+        <v>759</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>634</v>
+        <v>760</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>635</v>
+        <v>761</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8410,22 +9759,22 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
-        <v>531</v>
+        <v>657</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>636</v>
+        <v>762</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>637</v>
+        <v>763</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>638</v>
+        <v>764</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>639</v>
+        <v>765</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8462,22 +9811,22 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
-        <v>536</v>
+        <v>662</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>640</v>
+        <v>766</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>641</v>
+        <v>767</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>642</v>
+        <v>768</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>643</v>
+        <v>769</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8514,22 +9863,22 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
-        <v>516</v>
+        <v>642</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>644</v>
+        <v>770</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>645</v>
+        <v>771</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>646</v>
+        <v>772</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>647</v>
+        <v>773</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8566,22 +9915,22 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>648</v>
+        <v>774</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>649</v>
+        <v>775</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>650</v>
+        <v>776</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>651</v>
+        <v>777</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8618,22 +9967,22 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="5" t="s">
-        <v>521</v>
+        <v>647</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>652</v>
+        <v>778</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>653</v>
+        <v>779</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>654</v>
+        <v>780</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>655</v>
+        <v>781</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8670,22 +10019,22 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="5" t="s">
-        <v>511</v>
+        <v>637</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>656</v>
+        <v>782</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>657</v>
+        <v>783</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>658</v>
+        <v>784</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>659</v>
+        <v>785</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8722,42 +10071,42 @@
     </row>
     <row r="78" ht="204" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>557</v>
+        <v>683</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>644</v>
+        <v>770</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>660</v>
+        <v>786</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>650</v>
+        <v>776</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>651</v>
+        <v>777</v>
       </c>
     </row>
     <row r="79" ht="122.4" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>584</v>
+        <v>710</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>661</v>
+        <v>787</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>662</v>
+        <v>788</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>663</v>
+        <v>789</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>544</v>
+        <v>670</v>
       </c>
     </row>
     <row r="80" ht="20.4" spans="1:6">
@@ -8800,202 +10149,202 @@
     </row>
     <row r="83" ht="409.5" spans="1:6">
       <c r="A83" s="4" t="s">
-        <v>516</v>
+        <v>642</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>664</v>
+        <v>790</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>665</v>
+        <v>791</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>666</v>
+        <v>792</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>667</v>
+        <v>793</v>
       </c>
     </row>
     <row r="84" ht="102" spans="1:6">
       <c r="A84" s="4" t="s">
-        <v>536</v>
+        <v>662</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>668</v>
+        <v>794</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>669</v>
+        <v>795</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>670</v>
+        <v>796</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>671</v>
+        <v>797</v>
       </c>
     </row>
     <row r="85" ht="224.4" spans="1:6">
       <c r="A85" s="4" t="s">
-        <v>496</v>
+        <v>622</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>672</v>
+        <v>798</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>673</v>
+        <v>799</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>674</v>
+        <v>800</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>675</v>
+        <v>801</v>
       </c>
     </row>
     <row r="86" ht="285.6" spans="1:6">
       <c r="A86" s="4" t="s">
-        <v>571</v>
+        <v>697</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>676</v>
+        <v>802</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>677</v>
+        <v>803</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>678</v>
+        <v>804</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>679</v>
+        <v>805</v>
       </c>
     </row>
     <row r="87" ht="142.8" spans="1:6">
       <c r="A87" s="4" t="s">
-        <v>521</v>
+        <v>647</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>680</v>
+        <v>806</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>677</v>
+        <v>803</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>681</v>
+        <v>807</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>682</v>
+        <v>808</v>
       </c>
     </row>
     <row r="88" ht="81.6" spans="1:6">
       <c r="A88" s="4" t="s">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>683</v>
+        <v>809</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>684</v>
+        <v>810</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>685</v>
+        <v>811</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>686</v>
+        <v>812</v>
       </c>
     </row>
     <row r="89" ht="102" spans="1:6">
       <c r="A89" s="4" t="s">
-        <v>531</v>
+        <v>657</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>687</v>
+        <v>813</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>688</v>
+        <v>814</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>689</v>
+        <v>815</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>690</v>
+        <v>816</v>
       </c>
     </row>
     <row r="90" ht="142.8" spans="1:6">
       <c r="A90" s="12" t="s">
-        <v>526</v>
+        <v>652</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>691</v>
+        <v>817</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>692</v>
+        <v>818</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>693</v>
+        <v>819</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>694</v>
+        <v>820</v>
       </c>
     </row>
     <row r="91" ht="102" spans="1:6">
       <c r="A91" s="12" t="s">
-        <v>584</v>
+        <v>710</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>695</v>
+        <v>821</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>696</v>
+        <v>822</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>697</v>
+        <v>823</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>698</v>
+        <v>824</v>
       </c>
     </row>
     <row r="92" ht="61.2" spans="1:6">
       <c r="A92" s="12" t="s">
-        <v>557</v>
+        <v>683</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>699</v>
+        <v>825</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>700</v>
+        <v>826</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>701</v>
+        <v>827</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>702</v>
+        <v>828</v>
       </c>
     </row>
     <row r="93" ht="20.4" spans="1:6">
@@ -9030,22 +10379,22 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="5" t="s">
-        <v>703</v>
+        <v>829</v>
       </c>
       <c r="B95" s="5">
         <v>9.5</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>704</v>
+        <v>830</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>705</v>
+        <v>831</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>706</v>
+        <v>832</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>707</v>
+        <v>833</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9114,62 +10463,62 @@
     </row>
     <row r="104" ht="265.2" spans="1:6">
       <c r="A104" s="5" t="s">
-        <v>516</v>
+        <v>642</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>708</v>
+        <v>834</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>709</v>
+        <v>835</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>710</v>
+        <v>836</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>711</v>
+        <v>837</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>712</v>
+        <v>838</v>
       </c>
     </row>
     <row r="105" ht="102" spans="1:6">
       <c r="A105" s="5" t="s">
-        <v>521</v>
+        <v>647</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>713</v>
+        <v>839</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>714</v>
+        <v>840</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>715</v>
+        <v>841</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>716</v>
+        <v>842</v>
       </c>
     </row>
     <row r="106" ht="409.5" spans="1:11">
       <c r="A106" s="4" t="s">
-        <v>511</v>
+        <v>637</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>717</v>
+        <v>843</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>656</v>
+        <v>782</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>657</v>
+        <v>783</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>658</v>
+        <v>784</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>659</v>
+        <v>785</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -9179,42 +10528,42 @@
     </row>
     <row r="107" ht="142.8" spans="1:6">
       <c r="A107" s="4" t="s">
-        <v>536</v>
+        <v>662</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>718</v>
+        <v>844</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>719</v>
+        <v>845</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>720</v>
+        <v>846</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>721</v>
+        <v>847</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="5" t="s">
-        <v>526</v>
+        <v>652</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>722</v>
+        <v>848</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>723</v>
+        <v>849</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>724</v>
+        <v>850</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>725</v>
+        <v>851</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -9267,22 +10616,22 @@
     </row>
     <row r="115" ht="20.4" spans="1:9">
       <c r="A115" s="5" t="s">
-        <v>496</v>
+        <v>622</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>726</v>
+        <v>852</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>727</v>
+        <v>853</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>728</v>
+        <v>854</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>729</v>
+        <v>855</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -9338,22 +10687,22 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="5" t="s">
-        <v>531</v>
+        <v>657</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>730</v>
+        <v>856</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>731</v>
+        <v>857</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>732</v>
+        <v>858</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>733</v>
+        <v>859</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -9406,22 +10755,22 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="5" t="s">
-        <v>584</v>
+        <v>710</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>734</v>
+        <v>860</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>735</v>
+        <v>861</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>736</v>
+        <v>862</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>698</v>
+        <v>824</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -9474,22 +10823,22 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="5" t="s">
-        <v>557</v>
+        <v>683</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>737</v>
+        <v>863</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>738</v>
+        <v>864</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>739</v>
+        <v>865</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>740</v>
+        <v>866</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -9572,183 +10921,421 @@
     </row>
     <row r="145" ht="144" spans="1:6">
       <c r="A145" t="s">
-        <v>516</v>
+        <v>642</v>
       </c>
       <c r="B145" t="s">
         <v>216</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>741</v>
+        <v>867</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>742</v>
+        <v>868</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>743</v>
+        <v>869</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>744</v>
+        <v>870</v>
       </c>
     </row>
     <row r="146" ht="57.6" spans="1:6">
       <c r="A146" t="s">
-        <v>496</v>
+        <v>622</v>
       </c>
       <c r="B146" t="s">
         <v>216</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>745</v>
+        <v>871</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>746</v>
+        <v>872</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>747</v>
+        <v>873</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>748</v>
+        <v>874</v>
       </c>
     </row>
     <row r="147" ht="43.2" spans="1:6">
       <c r="A147" t="s">
-        <v>536</v>
+        <v>662</v>
       </c>
       <c r="B147" t="s">
         <v>216</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>749</v>
+        <v>875</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>750</v>
+        <v>876</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>751</v>
+        <v>877</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>752</v>
+        <v>878</v>
       </c>
     </row>
     <row r="148" ht="43.2" spans="1:6">
       <c r="A148" t="s">
-        <v>531</v>
+        <v>657</v>
       </c>
       <c r="B148" t="s">
         <v>216</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>753</v>
+        <v>879</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>754</v>
+        <v>880</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>755</v>
+        <v>881</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>756</v>
+        <v>882</v>
       </c>
     </row>
     <row r="149" ht="216" spans="1:6">
       <c r="A149" t="s">
-        <v>511</v>
+        <v>637</v>
       </c>
       <c r="B149" t="s">
         <v>216</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>757</v>
+        <v>883</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>758</v>
+        <v>884</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>759</v>
+        <v>885</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>760</v>
+        <v>886</v>
       </c>
     </row>
     <row r="150" ht="28.8" spans="1:6">
       <c r="A150" t="s">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="B150" t="s">
         <v>216</v>
       </c>
       <c r="C150" t="s">
-        <v>761</v>
+        <v>887</v>
       </c>
       <c r="D150" t="s">
-        <v>762</v>
+        <v>888</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>763</v>
+        <v>889</v>
       </c>
       <c r="F150" t="s">
-        <v>764</v>
+        <v>890</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>521</v>
+        <v>647</v>
       </c>
       <c r="B151" t="s">
         <v>216</v>
       </c>
       <c r="C151" t="s">
-        <v>765</v>
+        <v>891</v>
       </c>
       <c r="D151" t="s">
-        <v>766</v>
+        <v>892</v>
       </c>
       <c r="E151" t="s">
-        <v>767</v>
+        <v>893</v>
       </c>
       <c r="F151" t="s">
-        <v>768</v>
+        <v>894</v>
       </c>
     </row>
     <row r="152" ht="43.2" spans="1:6">
       <c r="A152" t="s">
-        <v>584</v>
+        <v>710</v>
       </c>
       <c r="B152" t="s">
         <v>216</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>769</v>
+        <v>895</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>770</v>
+        <v>896</v>
       </c>
       <c r="E152" t="s">
-        <v>771</v>
+        <v>897</v>
       </c>
       <c r="F152" t="s">
-        <v>698</v>
+        <v>824</v>
       </c>
     </row>
     <row r="153" ht="28.8" spans="1:6">
       <c r="A153" t="s">
-        <v>557</v>
+        <v>683</v>
       </c>
       <c r="B153" t="s">
         <v>216</v>
       </c>
       <c r="C153" t="s">
-        <v>772</v>
+        <v>898</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>766</v>
+        <v>892</v>
       </c>
       <c r="E153" t="s">
-        <v>773</v>
+        <v>899</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>774</v>
-      </c>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="154" ht="20.4" spans="1:6">
+      <c r="A154" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+    </row>
+    <row r="155" ht="20.4" spans="1:6">
+      <c r="A155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" ht="122.4" spans="1:6">
+      <c r="A156" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="157" ht="81.6" spans="1:6">
+      <c r="A157" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="158" ht="31.2" spans="1:6">
+      <c r="A158" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>911</v>
+      </c>
+      <c r="E158" s="15" t="s">
+        <v>912</v>
+      </c>
+      <c r="F158" s="15" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="159" ht="81.6" spans="1:6">
+      <c r="A159" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>913</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="160" ht="163.2" spans="1:6">
+      <c r="A160" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="161" ht="409.5" spans="1:6">
+      <c r="A161" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="162" ht="102" spans="1:6">
+      <c r="A162" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="163" ht="409.5" spans="1:6">
+      <c r="A163" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="164" ht="81.6" spans="1:6">
+      <c r="A164" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="165" ht="81.6" spans="1:6">
+      <c r="A165" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="166" ht="20.4" spans="1:6">
+      <c r="A166" s="2"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="84">

--- a/1601W-learningLogs/1601W.xlsx
+++ b/1601W-learningLogs/1601W.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="22943" windowHeight="9924" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一小组" sheetId="1" r:id="rId1"/>
@@ -3775,22 +3775,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3804,29 +3796,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3834,7 +3804,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3865,7 +3835,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3887,9 +3903,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3898,21 +3913,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3951,7 +3951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3963,7 +3969,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3975,31 +4017,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4011,25 +4041,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4041,13 +4071,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4059,67 +4119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4130,15 +4130,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4153,6 +4144,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4172,6 +4181,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4183,24 +4212,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4219,17 +4230,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4238,10 +4238,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4250,137 +4250,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4610,9 +4610,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5008,8 +5005,8 @@
   <sheetPr/>
   <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C174" sqref="C174"/>
     </sheetView>
@@ -7668,7 +7665,7 @@
       <c r="A195" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B195" s="77" t="s">
+      <c r="B195" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C195" s="76" t="s">
@@ -7696,8 +7693,8 @@
   <sheetPr/>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A64" sqref="$A64:$XFD64"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -8596,9 +8593,7 @@
       <c r="A58" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B58" s="26">
-        <v>43347</v>
-      </c>
+      <c r="B58" s="26"/>
       <c r="C58" s="3" t="s">
         <v>562</v>
       </c>
